--- a/data/popularity-of-tools.xlsx
+++ b/data/popularity-of-tools.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\testndev-gitpages\articles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE242802-7A48-40B4-8B8E-A5978625A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A8C56D-5542-4975-953E-9C77524AC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multiTimeline Google Trends" sheetId="1" r:id="rId1"/>
-    <sheet name="synthetic view" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphique1" sheetId="3" r:id="rId2"/>
+    <sheet name="Graphique2" sheetId="4" r:id="rId3"/>
+    <sheet name="synthetic view" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -288,10 +290,10 @@
     <t>repartition upon sum</t>
   </si>
   <si>
-    <t>Interest, on Google Web Search</t>
+    <t>Interest over time on Google Trends (jan 2022 - may 2023)</t>
   </si>
   <si>
-    <t>Interest over time on Google Trends (jan 2022 - may 2023)</t>
+    <t>Interest, on Google Search</t>
   </si>
 </sst>
 </file>
@@ -3316,6 +3318,438 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="515986800"/>
+        <c:axId val="515987760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="515986800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515987760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515987760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515986800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="676637808"/>
+        <c:axId val="676660368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="676637808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676660368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676660368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676637808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -3828,7 +4262,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3842,80 +4276,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" cap="none" baseline="0"/>
-              <a:t>distribution, relative to the sum of the values</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20314239419427577"/>
-          <c:y val="3.065693136991289E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.30094126018204187"/>
-          <c:y val="0.21071460831552447"/>
+          <c:x val="0.31363103440566553"/>
+          <c:y val="3.8695189503688956E-2"/>
           <c:w val="0.63204646681073029"/>
-          <c:h val="0.63337998754976488"/>
+          <c:h val="0.66585654212006884"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4025,7 +4396,7 @@
                   <c:v>Followers on Twitter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Interest, on Google Web Search</c:v>
+                  <c:v>Interest, on Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4159,7 +4530,7 @@
                   <c:v>Followers on Twitter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Interest, on Google Web Search</c:v>
+                  <c:v>Interest, on Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4293,7 +4664,7 @@
                   <c:v>Followers on Twitter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Interest, on Google Web Search</c:v>
+                  <c:v>Interest, on Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4429,7 +4800,7 @@
                   <c:v>Followers on Twitter</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Interest, on Google Web Search</c:v>
+                  <c:v>Interest, on Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4469,7 +4840,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="5"/>
+        <c:gapWidth val="7"/>
         <c:overlap val="100"/>
         <c:axId val="1004649600"/>
         <c:axId val="1004648640"/>
@@ -4481,10 +4852,35 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="15000"/>
+                      <a:lumOff val="85000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4501,18 +4897,18 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4532,7 +4928,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4563,33 +4959,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1004649600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4608,8 +4977,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.26329222461801716"/>
-          <c:y val="0.86661928208333028"/>
+          <c:x val="0.28232687099627135"/>
+          <c:y val="0.75154128456504188"/>
           <c:w val="0.70305343102124507"/>
           <c:h val="7.7373749700773084E-2"/>
         </c:manualLayout>
@@ -4801,6 +5170,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5318,6 +5767,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5842,7 +7297,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6391,6 +7846,28 @@
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9F4A8160-3BF5-46B5-B891-58B6049DD0E3}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B83B0652-A11C-49DC-93B1-EAA990798C50}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6437,6 +7914,72 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9291053" cy="6068308"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10865F13-B4CC-ED15-61DB-9506AD149F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9291053" cy="6068308"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5CD81F-EEEE-8222-6A03-C20323C4BCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7016,16 +8559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>756557</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1232807</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7055,119 +8598,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.67589</cdr:x>
-      <cdr:y>0.92585</cdr:y>
+      <cdr:x>0.08141</cdr:x>
+      <cdr:y>0.08297</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.72577</cdr:x>
-      <cdr:y>0.9795</cdr:y>
+      <cdr:x>0.11222</cdr:x>
+      <cdr:y>0.1463</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="Image 1">
+        <cdr:cNvPr id="18" name="Image 17" descr="Depuis septembre 2015">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10292F56-E2EF-BCFD-6786-E9AC18599DE8}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5420035" y="7000631"/>
-          <a:ext cx="400050" cy="405661"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.85353</cdr:x>
-      <cdr:y>0.93336</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.88944</cdr:x>
-      <cdr:y>0.97199</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="3" name="Graphique 9">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A203A400-DED6-4BBE-8B3B-952061565F2A}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6844548" y="7057441"/>
-          <a:ext cx="288000" cy="292040"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.5125</cdr:x>
-      <cdr:y>0.93265</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.54813</cdr:x>
-      <cdr:y>0.9727</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="4" name="Image 3" descr="Selenium">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28607CE7-8EAB-4D05-FCA7-7D604D59D3D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A0D5C5-0BA3-6DE7-B84C-A23D871609B2}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7176,111 +8623,7 @@
         </cdr:cNvPicPr>
       </cdr:nvPicPr>
       <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4109821" y="7052076"/>
-          <a:ext cx="285750" cy="302770"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.34883</cdr:x>
-      <cdr:y>0.93336</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.38475</cdr:x>
-      <cdr:y>0.97199</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="5" name="Graphique 15">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6C331B-6CF0-632B-B51A-E0A691A9E3A3}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2797357" y="7057441"/>
-          <a:ext cx="288000" cy="292040"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.25307</cdr:x>
-      <cdr:y>0.23275</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.28388</cdr:x>
-      <cdr:y>0.26655</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="6" name="Image 5" descr="Depuis septembre 2015">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839BBED5-FC66-4312-EA44-9964C465C82E}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
             <a:schemeClr val="accent3">
@@ -7301,8 +8644,8 @@
       </cdr:blipFill>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2026207" y="1735581"/>
-          <a:ext cx="246661" cy="252000"/>
+          <a:off x="651768" y="330200"/>
+          <a:ext cx="246678" cy="252037"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7322,19 +8665,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25247</cdr:x>
-      <cdr:y>0.54512</cdr:y>
+      <cdr:x>0.08081</cdr:x>
+      <cdr:y>0.43336</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28388</cdr:x>
-      <cdr:y>0.57891</cdr:y>
+      <cdr:x>0.11222</cdr:x>
+      <cdr:y>0.49667</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="7" name="Image 6" descr="undefined">
+        <cdr:cNvPr id="19" name="Image 18" descr="undefined">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A99D127-3168-7DF2-D04C-6A8E412875A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11B9A5C2-2CF0-AA57-8207-6853B8E38575}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7343,7 +8686,7 @@
         </cdr:cNvPicPr>
       </cdr:nvPicPr>
       <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
             <a:schemeClr val="accent3">
@@ -7364,8 +8707,8 @@
       </cdr:blipFill>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2021391" y="4064781"/>
-          <a:ext cx="251477" cy="252000"/>
+          <a:off x="646964" y="1724596"/>
+          <a:ext cx="251482" cy="251962"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7385,19 +8728,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.21033</cdr:x>
-      <cdr:y>0.71215</cdr:y>
+      <cdr:x>0.04362</cdr:x>
+      <cdr:y>0.60455</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28388</cdr:x>
-      <cdr:y>0.74321</cdr:y>
+      <cdr:x>0.11222</cdr:x>
+      <cdr:y>0.65882</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="8" name="Image 7">
+        <cdr:cNvPr id="20" name="Image 19">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E10BF3-B837-0DEE-19F4-85D9E43AE59D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1BE161-499A-22AA-3154-D87DA6DB21F1}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7406,7 +8749,7 @@
         </cdr:cNvPicPr>
       </cdr:nvPicPr>
       <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
             <a:schemeClr val="accent3">
@@ -7427,8 +8770,8 @@
       </cdr:blipFill>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1684024" y="5310321"/>
-          <a:ext cx="588844" cy="231585"/>
+          <a:off x="349250" y="2405881"/>
+          <a:ext cx="549196" cy="216000"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7448,19 +8791,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.24489</cdr:x>
-      <cdr:y>0.38996</cdr:y>
+      <cdr:x>0.08115</cdr:x>
+      <cdr:y>0.2494</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28309</cdr:x>
-      <cdr:y>0.42375</cdr:y>
+      <cdr:x>0.11935</cdr:x>
+      <cdr:y>0.31271</cdr:y>
     </cdr:to>
     <cdr:pic>
       <cdr:nvPicPr>
-        <cdr:cNvPr id="9" name="Image 8" descr="Logo de Twitter">
+        <cdr:cNvPr id="21" name="Image 20" descr="Logo de Twitter">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CCF060-FFBA-DB7D-F592-13DF55CA33F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80CF755F-750D-B1A9-C6B1-3D51B8C59595}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -7469,7 +8812,7 @@
         </cdr:cNvPicPr>
       </cdr:nvPicPr>
       <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
             <a:schemeClr val="accent3">
@@ -7490,8 +8833,8 @@
       </cdr:blipFill>
       <cdr:spPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1960668" y="2907807"/>
-          <a:ext cx="305850" cy="252000"/>
+          <a:off x="649750" y="992511"/>
+          <a:ext cx="305846" cy="251961"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7506,6 +8849,206 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.68317</cdr:x>
+      <cdr:y>0.82015</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73305</cdr:x>
+      <cdr:y>0.92068</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="22" name="Image 21">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875A8A34-FE30-734E-363D-0E1D5896AB83}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5469737" y="3263900"/>
+          <a:ext cx="399361" cy="400052"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.86398</cdr:x>
+      <cdr:y>0.83422</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89989</cdr:x>
+      <cdr:y>0.9066</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="23" name="Graphique 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674FF711-EC8B-4AC8-2DF1-369D46BB7348}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6917401" y="3319900"/>
+          <a:ext cx="287512" cy="288052"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53405</cdr:x>
+      <cdr:y>0.83289</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56968</cdr:x>
+      <cdr:y>0.90793</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="24" name="Image 23" descr="Selenium">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50A19E9-8155-8029-1C90-87C08D9B4098}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4275864" y="3314605"/>
+          <a:ext cx="285270" cy="298642"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </cdr:spPr>
+    </cdr:pic>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.37038</cdr:x>
+      <cdr:y>0.83422</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4063</cdr:x>
+      <cdr:y>0.9066</cdr:y>
+    </cdr:to>
+    <cdr:pic>
+      <cdr:nvPicPr>
+        <cdr:cNvPr id="25" name="Graphique 15">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6445FB34-3780-D878-3744-D84E3F8FDDCC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cdr:cNvPicPr>
+      </cdr:nvPicPr>
+      <cdr:blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </cdr:blipFill>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2965450" y="3319900"/>
+          <a:ext cx="287591" cy="288052"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </cdr:spPr>
     </cdr:pic>
   </cdr:relSizeAnchor>
@@ -9732,8 +11275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0932AB34-8733-4737-8C12-1A28FA20982D}">
   <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9815,7 +11358,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2">
         <v>84.705882352941174</v>
@@ -9964,7 +11507,7 @@
         <v>25</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="D23:F23" si="4">ROUNDUP(100*(E3/SUM($C3:$F3)),0)</f>
+        <f t="shared" ref="E23:F23" si="4">ROUNDUP(100*(E3/SUM($C3:$F3)),0)</f>
         <v>16</v>
       </c>
       <c r="F23">
@@ -10019,7 +11562,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:F26" si="7">ROUNDUP(100*(C6/SUM($C6:$F6)),0)</f>

--- a/data/popularity-of-tools.xlsx
+++ b/data/popularity-of-tools.xlsx
@@ -8,18 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\testndev-gitpages\articles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03B251-1CB6-456D-AA4E-BFE78AD68B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED83EC75-298D-473F-B509-5F4B9FEC1E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google Trends - raw data" sheetId="6" r:id="rId1"/>
     <sheet name="Google Trends - avg by quarter" sheetId="7" r:id="rId2"/>
-    <sheet name="synthetic view" sheetId="2" r:id="rId3"/>
+    <sheet name="github stars trends" sheetId="8" r:id="rId3"/>
+    <sheet name="synthetic view" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'github stars trends'!$A$1:$C$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t xml:space="preserve"> Cypress  </t>
   </si>
@@ -156,16 +160,44 @@
   <si>
     <t xml:space="preserve">NPM weekly downloads </t>
   </si>
+  <si>
+    <t>microsoft/playwright</t>
+  </si>
+  <si>
+    <t>SeleniumHQ/selenium</t>
+  </si>
+  <si>
+    <t>cypress-io/cypress</t>
+  </si>
+  <si>
+    <t>nightwatchjs/nightwatch</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>repo</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>https://star-history.com/#microsoft/playwright&amp;SeleniumHQ/selenium&amp;cypress-io/cypress&amp;nightwatchjs/nightwatch&amp;Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source : </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="171" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +332,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +521,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -597,8 +643,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -642,16 +703,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -665,8 +721,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -696,6 +761,7 @@
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -713,7 +779,7 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -764,7 +830,7 @@
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3768,11 +3834,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3839,11 +3916,24 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3903,7 +3993,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="100"/>
         <c:axId val="507674496"/>
         <c:axId val="507674976"/>
       </c:barChart>
@@ -3918,11 +4008,11 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3950,16 +4040,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+                <a:latin typeface="Lucida Console" panose="020B0609040504020204" pitchFamily="49" charset="0"/>
+                <a:ea typeface="Cascadia Mono SemiBold" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
+                <a:cs typeface="Cascadia Mono SemiBold" panose="020B0609020000020004" pitchFamily="49" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
@@ -3967,7 +4062,7 @@
         </c:txPr>
         <c:crossAx val="507674976"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -3976,6 +4071,8 @@
         <c:axId val="507674976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="-30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3988,19 +4085,24 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ ;[Red]\-0\ " sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4027,6 +4129,7 @@
         <c:crossAx val="507674496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4037,12 +4140,26 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6908869045996947E-2"/>
+          <c:y val="0.14960553864319423"/>
+          <c:w val="0.34121346450231788"/>
+          <c:h val="0.19317608066569486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4051,7 +4168,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6428,16 +6545,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>196851</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116255</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>465504</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>84015</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6464,23 +6581,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38273</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>245154</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>29973</xdr:rowOff>
+      <xdr:rowOff>36150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="Depuis septembre 2015">
+        <xdr:cNvPr id="4" name="Image 3" descr="undefined">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839BBED5-FC66-4312-EA44-9964C465C82E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A99D127-3168-7DF2-D04C-6A8E412875A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6510,144 +6627,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5149850" y="2800523"/>
-          <a:ext cx="353104" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>296500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>36150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3" descr="undefined">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A99D127-3168-7DF2-D04C-6A8E412875A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
           <a:off x="9766300" y="2806700"/>
           <a:ext cx="360000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>383450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>78256</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E10BF3-B837-0DEE-19F4-85D9E43AE59D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6445250" y="1085851"/>
-          <a:ext cx="720000" cy="281455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6693,7 +6674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
             <a:schemeClr val="accent3">
@@ -6809,13 +6790,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId7"/>
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId5"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6862,13 +6843,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6915,7 +6896,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6976,13 +6957,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7010,10 +6991,10 @@
       <xdr:rowOff>88761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>618392</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>10746</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>696057</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7034,7 +7015,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7042,16 +7023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>736356</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2025895</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>736356</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>52754</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>688730</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7070,10 +7051,229 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139212</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>111981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>664418</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>651981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6" descr="Selenium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E992200-1B96-48E7-355A-DCFDE08C4CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8938847" y="12875481"/>
+          <a:ext cx="525206" cy="540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>131883</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>98914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>698018</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>665049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphique 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2083EAB-11EF-C7E5-12C7-2CD67FD2F496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6645518" y="12862414"/>
+          <a:ext cx="566135" cy="566135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>77223</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>93981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653223</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>669981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92609856-C6A5-6639-976E-BD5549708C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7352858" y="12857481"/>
+          <a:ext cx="576000" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>32428</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>760006</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>741981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3420517-4BE9-9AA3-3517-B671AFFA0615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId5"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8070063" y="12785481"/>
+          <a:ext cx="727578" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7330,206 +7530,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.68317</cdr:x>
-      <cdr:y>0.82015</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.73305</cdr:x>
-      <cdr:y>0.92068</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="22" name="Image 21">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875A8A34-FE30-734E-363D-0E1D5896AB83}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
-              <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5469737" y="3263900"/>
-          <a:ext cx="399361" cy="400052"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.86398</cdr:x>
-      <cdr:y>0.83422</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.89989</cdr:x>
-      <cdr:y>0.9066</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="23" name="Graphique 9">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674FF711-EC8B-4AC8-2DF1-369D46BB7348}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6917401" y="3319900"/>
-          <a:ext cx="287512" cy="288052"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.53405</cdr:x>
-      <cdr:y>0.83289</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.56968</cdr:x>
-      <cdr:y>0.90793</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="24" name="Image 23" descr="Selenium">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50A19E9-8155-8029-1C90-87C08D9B4098}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4275864" y="3314605"/>
-          <a:ext cx="285270" cy="298642"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.37038</cdr:x>
-      <cdr:y>0.83422</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.4063</cdr:x>
-      <cdr:y>0.9066</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="25" name="Graphique 15">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6445FB34-3780-D878-3744-D84E3F8FDDCC}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2965450" y="3319900"/>
-          <a:ext cx="287591" cy="288052"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </cdr:spPr>
     </cdr:pic>
   </cdr:relSizeAnchor>
@@ -9250,10 +9250,10 @@
     <dataField name="Interest for Selenium.js" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="0">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="16">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -9262,7 +9262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9274,7 +9274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9286,7 +9286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9298,11 +9298,68 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="1">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="1">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="6" count="1">
+            <x v="4"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -9314,69 +9371,12 @@
             <x v="1"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="1">
-            <x v="2"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="1">
-            <x v="3"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="1">
-            <x v="4"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
             <x v="3"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="6" count="1">
-            <x v="1"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9388,7 +9388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9400,7 +9400,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9412,7 +9412,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -9421,7 +9421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9433,7 +9433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="1">
@@ -9855,7 +9855,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>43989</v>
       </c>
       <c r="B2">
@@ -9872,7 +9872,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>43996</v>
       </c>
       <c r="B3">
@@ -9889,7 +9889,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>44003</v>
       </c>
       <c r="B4">
@@ -9906,7 +9906,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>44010</v>
       </c>
       <c r="B5">
@@ -9923,7 +9923,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>44017</v>
       </c>
       <c r="B6">
@@ -9940,7 +9940,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>44024</v>
       </c>
       <c r="B7">
@@ -9957,7 +9957,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>44031</v>
       </c>
       <c r="B8">
@@ -9974,7 +9974,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>44038</v>
       </c>
       <c r="B9">
@@ -9991,7 +9991,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>44045</v>
       </c>
       <c r="B10">
@@ -10008,7 +10008,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>44052</v>
       </c>
       <c r="B11">
@@ -10025,7 +10025,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>44059</v>
       </c>
       <c r="B12">
@@ -10042,7 +10042,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>44066</v>
       </c>
       <c r="B13">
@@ -10059,7 +10059,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>44073</v>
       </c>
       <c r="B14">
@@ -10076,7 +10076,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>44080</v>
       </c>
       <c r="B15">
@@ -10093,7 +10093,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>44087</v>
       </c>
       <c r="B16">
@@ -10110,7 +10110,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>44094</v>
       </c>
       <c r="B17">
@@ -10127,7 +10127,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>44101</v>
       </c>
       <c r="B18">
@@ -10144,7 +10144,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>44108</v>
       </c>
       <c r="B19">
@@ -10161,7 +10161,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>44115</v>
       </c>
       <c r="B20">
@@ -10178,7 +10178,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>44122</v>
       </c>
       <c r="B21">
@@ -10195,7 +10195,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>44129</v>
       </c>
       <c r="B22">
@@ -10212,7 +10212,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>44136</v>
       </c>
       <c r="B23">
@@ -10229,7 +10229,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>44143</v>
       </c>
       <c r="B24">
@@ -10246,7 +10246,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>44150</v>
       </c>
       <c r="B25">
@@ -10263,7 +10263,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>44157</v>
       </c>
       <c r="B26">
@@ -10280,7 +10280,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>44164</v>
       </c>
       <c r="B27">
@@ -10297,7 +10297,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>44171</v>
       </c>
       <c r="B28">
@@ -10314,7 +10314,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>44178</v>
       </c>
       <c r="B29">
@@ -10331,7 +10331,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>44185</v>
       </c>
       <c r="B30">
@@ -10348,7 +10348,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>44192</v>
       </c>
       <c r="B31">
@@ -10365,7 +10365,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>44199</v>
       </c>
       <c r="B32">
@@ -10382,7 +10382,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>44206</v>
       </c>
       <c r="B33">
@@ -10399,7 +10399,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>44213</v>
       </c>
       <c r="B34">
@@ -10416,7 +10416,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>44220</v>
       </c>
       <c r="B35">
@@ -10433,7 +10433,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>44227</v>
       </c>
       <c r="B36">
@@ -10450,7 +10450,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>44234</v>
       </c>
       <c r="B37">
@@ -10467,7 +10467,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>44241</v>
       </c>
       <c r="B38">
@@ -10484,7 +10484,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>44248</v>
       </c>
       <c r="B39">
@@ -10501,7 +10501,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>44255</v>
       </c>
       <c r="B40">
@@ -10518,7 +10518,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>44262</v>
       </c>
       <c r="B41">
@@ -10535,7 +10535,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>44269</v>
       </c>
       <c r="B42">
@@ -10552,7 +10552,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>44276</v>
       </c>
       <c r="B43">
@@ -10569,7 +10569,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>44283</v>
       </c>
       <c r="B44">
@@ -10586,7 +10586,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>44290</v>
       </c>
       <c r="B45">
@@ -10603,7 +10603,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>44297</v>
       </c>
       <c r="B46">
@@ -10620,7 +10620,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>44304</v>
       </c>
       <c r="B47">
@@ -10637,7 +10637,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>44311</v>
       </c>
       <c r="B48">
@@ -10654,7 +10654,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>44318</v>
       </c>
       <c r="B49">
@@ -10671,7 +10671,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>44325</v>
       </c>
       <c r="B50">
@@ -10688,7 +10688,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>44332</v>
       </c>
       <c r="B51">
@@ -10705,7 +10705,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>44339</v>
       </c>
       <c r="B52">
@@ -10722,7 +10722,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>44346</v>
       </c>
       <c r="B53">
@@ -10739,7 +10739,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>44353</v>
       </c>
       <c r="B54">
@@ -10756,7 +10756,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>44360</v>
       </c>
       <c r="B55">
@@ -10773,7 +10773,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>44367</v>
       </c>
       <c r="B56">
@@ -10790,7 +10790,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>44374</v>
       </c>
       <c r="B57">
@@ -10807,7 +10807,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>44381</v>
       </c>
       <c r="B58">
@@ -10824,7 +10824,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>44388</v>
       </c>
       <c r="B59">
@@ -10841,7 +10841,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>44395</v>
       </c>
       <c r="B60">
@@ -10858,7 +10858,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>44402</v>
       </c>
       <c r="B61">
@@ -10875,7 +10875,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>44409</v>
       </c>
       <c r="B62">
@@ -10892,7 +10892,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>44416</v>
       </c>
       <c r="B63">
@@ -10909,7 +10909,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>44423</v>
       </c>
       <c r="B64">
@@ -10926,7 +10926,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>44430</v>
       </c>
       <c r="B65">
@@ -10943,7 +10943,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>44437</v>
       </c>
       <c r="B66">
@@ -10960,7 +10960,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>44444</v>
       </c>
       <c r="B67">
@@ -10977,7 +10977,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>44451</v>
       </c>
       <c r="B68">
@@ -10994,7 +10994,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>44458</v>
       </c>
       <c r="B69">
@@ -11011,7 +11011,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>44465</v>
       </c>
       <c r="B70">
@@ -11028,7 +11028,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>44472</v>
       </c>
       <c r="B71">
@@ -11045,7 +11045,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>44479</v>
       </c>
       <c r="B72">
@@ -11062,7 +11062,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>44486</v>
       </c>
       <c r="B73">
@@ -11079,7 +11079,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>44493</v>
       </c>
       <c r="B74">
@@ -11096,7 +11096,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>44500</v>
       </c>
       <c r="B75">
@@ -11113,7 +11113,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>44507</v>
       </c>
       <c r="B76">
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>44514</v>
       </c>
       <c r="B77">
@@ -11147,7 +11147,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>44521</v>
       </c>
       <c r="B78">
@@ -11164,7 +11164,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>44528</v>
       </c>
       <c r="B79">
@@ -11181,7 +11181,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>44535</v>
       </c>
       <c r="B80">
@@ -11198,7 +11198,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>44542</v>
       </c>
       <c r="B81">
@@ -11215,7 +11215,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>44549</v>
       </c>
       <c r="B82">
@@ -11232,7 +11232,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>44556</v>
       </c>
       <c r="B83">
@@ -11249,7 +11249,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>44563</v>
       </c>
       <c r="B84">
@@ -11266,7 +11266,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>44570</v>
       </c>
       <c r="B85">
@@ -11283,7 +11283,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>44577</v>
       </c>
       <c r="B86">
@@ -11300,7 +11300,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>44584</v>
       </c>
       <c r="B87">
@@ -11317,7 +11317,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>44591</v>
       </c>
       <c r="B88">
@@ -11334,7 +11334,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>44598</v>
       </c>
       <c r="B89">
@@ -11351,7 +11351,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="2">
         <v>44605</v>
       </c>
       <c r="B90">
@@ -11368,7 +11368,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>44612</v>
       </c>
       <c r="B91">
@@ -11385,7 +11385,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="2">
         <v>44619</v>
       </c>
       <c r="B92">
@@ -11402,7 +11402,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="2">
         <v>44626</v>
       </c>
       <c r="B93">
@@ -11419,7 +11419,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="2">
         <v>44633</v>
       </c>
       <c r="B94">
@@ -11436,7 +11436,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="2">
         <v>44640</v>
       </c>
       <c r="B95">
@@ -11453,7 +11453,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="2">
         <v>44647</v>
       </c>
       <c r="B96">
@@ -11470,7 +11470,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="2">
         <v>44654</v>
       </c>
       <c r="B97">
@@ -11487,7 +11487,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="2">
         <v>44661</v>
       </c>
       <c r="B98">
@@ -11504,7 +11504,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="2">
         <v>44668</v>
       </c>
       <c r="B99">
@@ -11521,7 +11521,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="2">
         <v>44675</v>
       </c>
       <c r="B100">
@@ -11538,7 +11538,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="2">
         <v>44682</v>
       </c>
       <c r="B101">
@@ -11555,7 +11555,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="2">
         <v>44689</v>
       </c>
       <c r="B102">
@@ -11572,7 +11572,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="2">
         <v>44696</v>
       </c>
       <c r="B103">
@@ -11589,7 +11589,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="2">
         <v>44703</v>
       </c>
       <c r="B104">
@@ -11606,7 +11606,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="2">
         <v>44710</v>
       </c>
       <c r="B105">
@@ -11623,7 +11623,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="2">
         <v>44717</v>
       </c>
       <c r="B106">
@@ -11640,7 +11640,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="2">
         <v>44724</v>
       </c>
       <c r="B107">
@@ -11657,7 +11657,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="2">
         <v>44731</v>
       </c>
       <c r="B108">
@@ -11674,7 +11674,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="2">
         <v>44738</v>
       </c>
       <c r="B109">
@@ -11691,7 +11691,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="2">
         <v>44745</v>
       </c>
       <c r="B110">
@@ -11708,7 +11708,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="2">
         <v>44752</v>
       </c>
       <c r="B111">
@@ -11725,7 +11725,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="2">
         <v>44759</v>
       </c>
       <c r="B112">
@@ -11742,7 +11742,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="2">
         <v>44766</v>
       </c>
       <c r="B113">
@@ -11759,7 +11759,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="2">
         <v>44773</v>
       </c>
       <c r="B114">
@@ -11776,7 +11776,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="2">
         <v>44780</v>
       </c>
       <c r="B115">
@@ -11793,7 +11793,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="2">
         <v>44787</v>
       </c>
       <c r="B116">
@@ -11810,7 +11810,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="2">
         <v>44794</v>
       </c>
       <c r="B117">
@@ -11827,7 +11827,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="2">
         <v>44801</v>
       </c>
       <c r="B118">
@@ -11844,7 +11844,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="2">
         <v>44808</v>
       </c>
       <c r="B119">
@@ -11861,7 +11861,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="2">
         <v>44815</v>
       </c>
       <c r="B120">
@@ -11878,7 +11878,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="2">
         <v>44822</v>
       </c>
       <c r="B121">
@@ -11895,7 +11895,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="2">
         <v>44829</v>
       </c>
       <c r="B122">
@@ -11912,7 +11912,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="2">
         <v>44836</v>
       </c>
       <c r="B123">
@@ -11929,7 +11929,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="2">
         <v>44843</v>
       </c>
       <c r="B124">
@@ -11946,7 +11946,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="2">
         <v>44850</v>
       </c>
       <c r="B125">
@@ -11963,7 +11963,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="2">
         <v>44857</v>
       </c>
       <c r="B126">
@@ -11980,7 +11980,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="2">
         <v>44864</v>
       </c>
       <c r="B127">
@@ -11997,7 +11997,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="2">
         <v>44871</v>
       </c>
       <c r="B128">
@@ -12014,7 +12014,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="2">
         <v>44878</v>
       </c>
       <c r="B129">
@@ -12031,7 +12031,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="2">
         <v>44885</v>
       </c>
       <c r="B130">
@@ -12048,7 +12048,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="2">
         <v>44892</v>
       </c>
       <c r="B131">
@@ -12065,7 +12065,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="2">
         <v>44899</v>
       </c>
       <c r="B132">
@@ -12082,7 +12082,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="2">
         <v>44906</v>
       </c>
       <c r="B133">
@@ -12099,7 +12099,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="2">
         <v>44913</v>
       </c>
       <c r="B134">
@@ -12116,7 +12116,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="2">
         <v>44920</v>
       </c>
       <c r="B135">
@@ -12133,7 +12133,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="2">
         <v>44927</v>
       </c>
       <c r="B136">
@@ -12150,7 +12150,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="2">
         <v>44934</v>
       </c>
       <c r="B137">
@@ -12167,7 +12167,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="2">
         <v>44941</v>
       </c>
       <c r="B138">
@@ -12184,7 +12184,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="2">
         <v>44948</v>
       </c>
       <c r="B139">
@@ -12201,7 +12201,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="2">
         <v>44955</v>
       </c>
       <c r="B140">
@@ -12218,7 +12218,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="2">
         <v>44962</v>
       </c>
       <c r="B141">
@@ -12235,7 +12235,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="2">
         <v>44969</v>
       </c>
       <c r="B142">
@@ -12252,7 +12252,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="2">
         <v>44976</v>
       </c>
       <c r="B143">
@@ -12269,7 +12269,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="2">
         <v>44983</v>
       </c>
       <c r="B144">
@@ -12286,7 +12286,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="2">
         <v>44990</v>
       </c>
       <c r="B145">
@@ -12303,7 +12303,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="2">
         <v>44997</v>
       </c>
       <c r="B146">
@@ -12320,7 +12320,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="2">
         <v>45004</v>
       </c>
       <c r="B147">
@@ -12337,7 +12337,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="2">
         <v>45011</v>
       </c>
       <c r="B148">
@@ -12354,7 +12354,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="2">
         <v>45018</v>
       </c>
       <c r="B149">
@@ -12371,7 +12371,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="2">
         <v>45025</v>
       </c>
       <c r="B150">
@@ -12388,7 +12388,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="2">
         <v>45032</v>
       </c>
       <c r="B151">
@@ -12405,7 +12405,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="2">
         <v>45039</v>
       </c>
       <c r="B152">
@@ -12422,7 +12422,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="2">
         <v>45046</v>
       </c>
       <c r="B153">
@@ -12439,7 +12439,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="2">
         <v>45053</v>
       </c>
       <c r="B154">
@@ -12456,7 +12456,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="2">
         <v>45060</v>
       </c>
       <c r="B155">
@@ -12473,7 +12473,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="2">
         <v>45067</v>
       </c>
       <c r="B156">
@@ -12490,7 +12490,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="2">
         <v>45074</v>
       </c>
       <c r="B157">
@@ -12533,7 +12533,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -12550,296 +12550,296 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>49.366666666666667</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.1666666666666667</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>3.2333333333333334</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>2.1333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>55.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>2.75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>54.46153846153846</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>0.76923076923076927</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1.6153846153846154</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>42.384615384615387</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1.4615384615384615</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>4.615384615384615</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>3.4615384615384617</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>50.384615384615387</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>1.8653846153846154</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>4.5961538461538458</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>2.9230769230769229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>44.384615384615387</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1.3076923076923077</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>3.5384615384615383</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>50.692307692307693</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2.4615384615384617</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>4.7692307692307692</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>2.4615384615384617</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>56.384615384615387</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>1.3076923076923077</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>3.3846153846153846</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>2.8461538461538463</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>50.07692307692308</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>2.3846153846153846</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>6.6923076923076925</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>1.3846153846153846</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>80.980769230769226</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>1.6730769230769231</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>20.01923076923077</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>2.3846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>75.84615384615384</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>2.5384615384615383</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>13.461538461538462</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>85.461538461538467</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>1.2307692307692308</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>18.53846153846154</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>1.0769230769230769</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>89</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>2.9230769230769229</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>21.692307692307693</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>2.3076923076923075</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>73.615384615384613</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>26.384615384615383</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>3.8461538461538463</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>78.681818181818187</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>1.4090909090909092</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>36.136363636363633</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>2.8636363636363638</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>83.538461538461533</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>1.3846153846153846</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>37.07692307692308</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>3.0769230769230771</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>71.666666666666671</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>1.4444444444444444</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>34.777777777777779</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>2.5555555555555554</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1">
@@ -12862,11 +12862,802 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6006713B-FA80-4803-8828-C69A2A4F0CF5}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="114.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="12">
+        <v>43815</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12">
+        <v>43854</v>
+      </c>
+      <c r="C3">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43856</v>
+      </c>
+      <c r="C4">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43874</v>
+      </c>
+      <c r="C5">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43938</v>
+      </c>
+      <c r="C6">
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="12">
+        <v>43998</v>
+      </c>
+      <c r="C7">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12">
+        <v>44098</v>
+      </c>
+      <c r="C8">
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12">
+        <v>44186</v>
+      </c>
+      <c r="C9">
+        <v>18630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12">
+        <v>44259</v>
+      </c>
+      <c r="C10">
+        <v>21270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44359</v>
+      </c>
+      <c r="C11">
+        <v>23940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="12">
+        <v>44460</v>
+      </c>
+      <c r="C12">
+        <v>26610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12">
+        <v>44509</v>
+      </c>
+      <c r="C13">
+        <v>29280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="12">
+        <v>44588</v>
+      </c>
+      <c r="C14">
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12">
+        <v>44637</v>
+      </c>
+      <c r="C15">
+        <v>34620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44703</v>
+      </c>
+      <c r="C16">
+        <v>37290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44774</v>
+      </c>
+      <c r="C17">
+        <v>39960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="12">
+        <v>45088</v>
+      </c>
+      <c r="C18">
+        <v>52127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="12">
+        <v>41288</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="12">
+        <v>42305</v>
+      </c>
+      <c r="C20">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="12">
+        <v>42573</v>
+      </c>
+      <c r="C21">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12">
+        <v>42802</v>
+      </c>
+      <c r="C22">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="12">
+        <v>42992</v>
+      </c>
+      <c r="C23">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="12">
+        <v>43154</v>
+      </c>
+      <c r="C24">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12">
+        <v>43322</v>
+      </c>
+      <c r="C25">
+        <v>10680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="12">
+        <v>43490</v>
+      </c>
+      <c r="C26">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="12">
+        <v>43667</v>
+      </c>
+      <c r="C27">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12">
+        <v>43863</v>
+      </c>
+      <c r="C28">
+        <v>16020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12">
+        <v>44070</v>
+      </c>
+      <c r="C29">
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="12">
+        <v>44266</v>
+      </c>
+      <c r="C30">
+        <v>19620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="12">
+        <v>44494</v>
+      </c>
+      <c r="C31">
+        <v>21390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12">
+        <v>44702</v>
+      </c>
+      <c r="C32">
+        <v>23190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="12">
+        <v>44888</v>
+      </c>
+      <c r="C33">
+        <v>24960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="12">
+        <v>45084</v>
+      </c>
+      <c r="C34">
+        <v>26760</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="12">
+        <v>45088</v>
+      </c>
+      <c r="C35">
+        <v>26804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="12">
+        <v>42067</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="12">
+        <v>43084</v>
+      </c>
+      <c r="C37">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="12">
+        <v>43250</v>
+      </c>
+      <c r="C38">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="12">
+        <v>43405</v>
+      </c>
+      <c r="C39">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="12">
+        <v>43563</v>
+      </c>
+      <c r="C40">
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="12">
+        <v>43687</v>
+      </c>
+      <c r="C41">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12">
+        <v>43810</v>
+      </c>
+      <c r="C42">
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12">
+        <v>43932</v>
+      </c>
+      <c r="C43">
+        <v>18630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="12">
+        <v>44042</v>
+      </c>
+      <c r="C44">
+        <v>21270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="12">
+        <v>44172</v>
+      </c>
+      <c r="C45">
+        <v>23940</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="12">
+        <v>44236</v>
+      </c>
+      <c r="C46">
+        <v>26610</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="12">
+        <v>44317</v>
+      </c>
+      <c r="C47">
+        <v>29280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="12">
+        <v>44440</v>
+      </c>
+      <c r="C48">
+        <v>31950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="12">
+        <v>44566</v>
+      </c>
+      <c r="C49">
+        <v>34620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="12">
+        <v>44672</v>
+      </c>
+      <c r="C50">
+        <v>37290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="12">
+        <v>44816</v>
+      </c>
+      <c r="C51">
+        <v>39960</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="12">
+        <v>45088</v>
+      </c>
+      <c r="C52">
+        <v>43596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="12">
+        <v>41641</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="12">
+        <v>41671</v>
+      </c>
+      <c r="C54">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="12">
+        <v>41687</v>
+      </c>
+      <c r="C55">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="12">
+        <v>41995</v>
+      </c>
+      <c r="C56">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="12">
+        <v>42263</v>
+      </c>
+      <c r="C57">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="12">
+        <v>42464</v>
+      </c>
+      <c r="C58">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="12">
+        <v>42599</v>
+      </c>
+      <c r="C59">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="12">
+        <v>42740</v>
+      </c>
+      <c r="C60">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="12">
+        <v>42877</v>
+      </c>
+      <c r="C61">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="12">
+        <v>43005</v>
+      </c>
+      <c r="C62">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="12">
+        <v>43185</v>
+      </c>
+      <c r="C63">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="12">
+        <v>43422</v>
+      </c>
+      <c r="C64">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="12">
+        <v>43650</v>
+      </c>
+      <c r="C65">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="12">
+        <v>43930</v>
+      </c>
+      <c r="C66">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="12">
+        <v>44406</v>
+      </c>
+      <c r="C67">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="12">
+        <v>45043</v>
+      </c>
+      <c r="C68">
+        <v>11340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="12">
+        <v>45088</v>
+      </c>
+      <c r="C69">
+        <v>11383</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C69" xr:uid="{6006713B-FA80-4803-8828-C69A2A4F0CF5}"/>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" location="microsoft/playwright&amp;SeleniumHQ/selenium&amp;cypress-io/cypress&amp;nightwatchjs/nightwatch&amp;Date" xr:uid="{4A4D3457-AE41-4D29-908B-B59975E8D5DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0932AB34-8733-4737-8C12-1A28FA20982D}">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12890,7 +13681,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -12910,7 +13701,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -12928,7 +13719,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -12946,7 +13737,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -12964,7 +13755,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="9"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -12986,7 +13777,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="9"/>
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -13008,14 +13799,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -13039,23 +13830,23 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="10"/>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <f t="shared" ref="C11:E11" si="1">100*(C3-C4)/C4</f>
         <v>21.813104887627951</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>-8.261673270966952</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>226.96226934728725</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f>100*(F3-F4)/F4</f>
         <v>-22.40014617690721</v>
       </c>
@@ -13075,7 +13866,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
@@ -13099,68 +13890,68 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <f>ROUNDUP(100*(C5/MAX($C5:$F5)),0)</f>
+        <f t="shared" ref="C18:F20" si="2">ROUNDUP(100*(C5/MAX($C5:$F5)),0)</f>
         <v>85</v>
       </c>
       <c r="D18">
-        <f>ROUNDUP(100*(D5/MAX($C5:$F5)),0)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="E18">
-        <f>ROUNDUP(100*(E5/MAX($C5:$F5)),0)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F18">
-        <f>ROUNDUP(100*(F5/MAX($C5:$F5)),0)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
-        <f>ROUNDUP(100*(C6/MAX($C6:$F6)),0)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="D19">
-        <f>ROUNDUP(100*(D6/MAX($C6:$F6)),0)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E19">
-        <f>ROUNDUP(100*(E6/MAX($C6:$F6)),0)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="F19">
-        <f>ROUNDUP(100*(F6/MAX($C6:$F6)),0)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <f>ROUNDUP(100*(C7/MAX($C7:$F7)),0)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="D20">
-        <f>ROUNDUP(100*(D7/MAX($C7:$F7)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E20">
-        <f>ROUNDUP(100*(E7/MAX($C7:$F7)),0)</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="F20">
-        <f>ROUNDUP(100*(F7/MAX($C7:$F7)),0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -13179,7 +13970,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
@@ -13203,70 +13994,76 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26">
-        <f>ROUNDUP(100*(C5/SUM($C5:$F5)),0)</f>
+        <f t="shared" ref="C26:F28" si="3">ROUNDUP(100*(C5/SUM($C5:$F5)),0)</f>
         <v>33</v>
       </c>
       <c r="D26">
-        <f>ROUNDUP(100*(D5/SUM($C5:$F5)),0)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E26">
-        <f>ROUNDUP(100*(E5/SUM($C5:$F5)),0)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="F26">
-        <f>ROUNDUP(100*(F5/SUM($C5:$F5)),0)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <f>ROUNDUP(100*(C6/SUM($C6:$F6)),0)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="D27">
-        <f>ROUNDUP(100*(D6/SUM($C6:$F6)),0)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E27">
-        <f>ROUNDUP(100*(E6/SUM($C6:$F6)),0)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F27">
-        <f>ROUNDUP(100*(F6/SUM($C6:$F6)),0)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="10"/>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28">
-        <f>ROUNDUP(100*(C7/SUM($C7:$F7)),0)</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="D28">
-        <f>ROUNDUP(100*(D7/SUM($C7:$F7)),0)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f>ROUNDUP(100*(E7/SUM($C7:$F7)),0)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F28">
-        <f>ROUNDUP(100*(F7/SUM($C7:$F7)),0)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
+    </row>
+    <row r="68" spans="5:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
